--- a/graph_generation/results_pathCompare/gpt3.5/level_8/k_0.xlsx
+++ b/graph_generation/results_pathCompare/gpt3.5/level_8/k_0.xlsx
@@ -31,23 +31,137 @@
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 4 0 0 3 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 4 0 0 5 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 5 0 0 2 0 0 0 0 2 0 0 0 0 0
+ H 0 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 3 0 3 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ I 0 0 0 0 5 0 0 0 0 5 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+Let's list down all the possible paths from node A to node O, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
  B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 3 0 3 0 0 4 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 4 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ C 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 5 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 2 0 0 1 0 3 0 0 1 0 0
+ K 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 2 0 0 0 0 4 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -55,45 +169,45 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 5 0 0 0 0 5 0 0 1 0 0 0 0 0
+ F 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0
  H 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 0 0 0 5 0 0 0
  J 0 0 0 0 0 3 0 0 2 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
- L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ K 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 2 0 0 2 0 0 0 0 5 0 0 0 0 0
- H 0 0 0 5 0 0 2 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 5 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
@@ -101,284 +215,238 @@
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 0 0 0 4 0 0 0 0 0 0
- G 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ B 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 2 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ F 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 4 0 0 5 0 0 0
+ J 0 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 5 0 0 3 0 0 0 0 0 0
- G 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+Let's list down all the possible paths from node A to node P, and compare the cost to get the answer.
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 3 0 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 3 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 3 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 1 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 4 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 5 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 5 0 0 4 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0
- K 0 0 0 0 0 0 4 0 0 0 0 4 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node O, and compare to get the answer.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 5 0 3 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- H 0 0 0 3 0 0 5 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-Let's list down all the possible paths from node A to node P, and compare to get the answer.
-    </t>
-  </si>
-  <si>
     <t>No possible path from A to P</t>
   </si>
   <si>
     <t>No possible path from A to O</t>
   </si>
   <si>
+    <t>There are several possible paths from node A to node P:
+1. A - B - F - J - P
+   Total cost: 0 + 1 + 0 + 0 + 0 = 1
+2. A - B - F - J - N - O - P
+   Total cost: 0 + 1 + 0 + 0 + 5 + 3 + 0 = 9
+3. A - B - F - M - N - O - P
+   Total cost: 0 + 1 + 0 + 0 + 1 + 3 + 0 = 5
+4. A - B - F - M - L - P
+   Total cost: 0 + 1 + 0 + 0 + 0 + 1 = 2
+Therefore, the least cost path from node A to node P is A - B - F - J - P with a total cost of 1.</t>
+  </si>
+  <si>
+    <t>All possible paths from node A to node P are as follows:
+1. A -&gt; B -&gt; F -&gt; P        (cost: 2 + 2 + 1 = 5)
+2. A -&gt; B -&gt; E -&gt; P        (cost: 2 + 5 = 7)
+3. A -&gt; B -&gt; K -&gt; L -&gt; P   (cost: 2 + 1 + 5 + 3 = 11)
+4. A -&gt; B -&gt; K -&gt; P        (cost: 2 + 1 = 3)
+5. A -&gt; B -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P   (cost: 2 + 5 + 3 + 3 = 13)
+6. A -&gt; B -&gt; E -&gt; I -&gt; P   (cost: 2 + 5 + 3 = 10)
+7. A -&gt; B -&gt; K -&gt; L -&gt; M -&gt; N -&gt; P   (cost: 2 + 1 + 5 + 2 + 3 = 13)
+8. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; P   (cost: 2 + 2 + 2 + 1 = 7)
+9. A -&gt; B -&gt; F -&gt; G -&gt; N -&gt; P   (cost: 2 + 2 + 2 + 3 = 9)
+10. A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P   (cost: 2 + 2 + 2 + 1 = 7)
+The least cost path from node A to node P is A -&gt; B -&gt; K -&gt; P with a cost of 3. So the sequence of nodes is A, B, K, P.</t>
+  </si>
+  <si>
+    <t>Possible Paths:
+1. A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O (Cost: 2+2+3+5+4+5 = 21)
+2. A -&gt; C -&gt; G -&gt; H -&gt; J -&gt; O (Cost: 2+2+3+5+1 = 13)
+3. A -&gt; C -&gt; G -&gt; K -&gt; J -&gt; O (Cost: 2+2+2+1+4 = 11)
+4. A -&gt; C -&gt; G -&gt; K -&gt; O (Cost: 2+2+2 = 6)
+5. A -&gt; C -&gt; D -&gt; H -&gt; I -&gt; J -&gt; O (Cost: 3+3+5+4+5 = 20)
+6. A -&gt; C -&gt; D -&gt; H -&gt; J -&gt; O (Cost: 3+3+5+1 = 12)
+7. A -&gt; C -&gt; D -&gt; H -&gt; O (Cost: 3+3+3 = 9)
+8. A -&gt; C -&gt; D -&gt; O (Cost: 3+3 = 6)
+9. A -&gt; E -&gt; O (Cost: 1)
+10. A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O (Cost: 3+3+5+4+5 = 20)
+11. A -&gt; F -&gt; G -&gt; H -&gt; J -&gt; O (Cost: 3+3+5+1 = 12)
+12. A -&gt; F -&gt; G -&gt; K -&gt; J -&gt; O (Cost: 3+3+2+1+4 = 13)
+13. A -&gt; F -&gt; G -&gt; K -&gt; O (Cost: 3+3+2 = 8)
+14. A -&gt; F -&gt; G -&gt; O (Cost: 3+3 = 6)
+15. A -&gt; I -&gt; J -&gt; O (Cost: 5+4+5 = 14)
+16. A -&gt; I -&gt; N -&gt; O (Cost: 5+3+3 = 11)
+17. A -&gt; J -&gt; O (Cost: 4+5 = 9)
+18. A -&gt; K -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O (Cost: 2+2+3+5+4+5 = 21)
+19. A -&gt; K -&gt; G -&gt; H -&gt; J -&gt; O (Cost: 2+2+3+5+1 = 13)
+20. A -&gt; K -&gt; J -&gt; O (Cost: 1+4 = 5)
+Least Cost Path: A -&gt; K -&gt; J -&gt; O (Cost: 5)</t>
+  </si>
+  <si>
     <t>Possible paths from node A to node P:
-1. A - B - C - D - H - I - J - N - P
-2. A - B - C - D - H - I - J - N - O - P
-3. A - B - C - D - H - I - J - N - O - K - P
-4. A - B - C - D - H - I - J - N - O - K - L - P
-5. A - B - C - D - H - I - J - N - O - K - L - M - P
-6. A - B - C - D - H - I - J - N - O - K - L - M - E - P
-7. A - B - C - D - H - I - J - N - O - K - L - M - E - O - P
-8. A - B - C - D - H - I - J - N - O - K - L - M - E - O - P
-The least cost path from node A to node P is path 1: A - B - C - D - H - I - J - N - P</t>
-  </si>
-  <si>
-    <t>There are several possible paths from node A to node P in this graph. Let's list them all and compare their costs:
-1. A -&gt; B -&gt; F -&gt; P (cost: 4 + 4 = 8)
-2. A -&gt; B -&gt; C -&gt; D -&gt; P (cost: 3 + 2 + 0 = 5)
-3. A -&gt; B -&gt; C -&gt; P (cost: 3 + 0 = 3)
-4. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P (cost: 4 + 5 + 0 + 2 = 11)
-5. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N -&gt; P (cost: 4 + 5 + 0 + 2 + 5 + 4 = 20)
-6. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P (cost: 4 + 5 + 0 + 2 + 5 + 2 + 3 + 5 = 26)
-From the above paths, the least cost path from node A to node P is:
-A -&gt; B -&gt; C -&gt; P
-Therefore, the sequence of nodes for the least cost path is: A, B, C, P.</t>
+1. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 9)
+2. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O -&gt; N -&gt; P (Cost: 10)
+3. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; D -&gt; P (Cost: 14)
+4. A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (Cost: 11)
+5. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; O -&gt; P (Cost: 9)
+6. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; N -&gt; P (Cost: 10)
+7. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; H -&gt; D -&gt; P (Cost: 14)
+8. A -&gt; B -&gt; C -&gt; F -&gt; J -&gt; H -&gt; I -&gt; P (Cost: 11)
+9. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 9)
+10. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; O -&gt; N -&gt; P (Cost: 10)
+11. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; H -&gt; D -&gt; P (Cost: 14)
+12. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (Cost: 11)
+13. A -&gt; C -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 9)
+14. A -&gt; C -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O -&gt; N -&gt; P (Cost: 10)
+15. A -&gt; C -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; D -&gt; P (Cost: 14)
+16. A -&gt; C -&gt; B -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (Cost: 11)
+17. A -&gt; C -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 9)
+18. A -&gt; C -&gt; F -&gt; G -&gt; O -&gt; N -&gt; P (Cost: 10)
+19. A -&gt; C -&gt; F -&gt; G -&gt; H -&gt; D -&gt; P (Cost: 14)
+20. A -&gt; C -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (Cost: 11)
+21. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; O -&gt; P (Cost: 9)
+22. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; O -&gt; N -&gt; P (Cost: 10)
+23. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; H -&gt; D -&gt; P (Cost: 14)
+24. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; G -&gt; H -&gt; I -&gt; P (Cost: 11)
+25. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; J -&gt; O -&gt; P (Cost: 9)
+26. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; J -&gt; N -&gt; P (Cost: 10)
+27. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; J -&gt; H -&gt; D -&gt; P (Cost: 14)
+28. A -&gt; E -&gt; I -&gt; J -&gt; F -&gt; J -&gt; H -&gt; I -&gt; P (Cost: 11)
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; O -&gt; P with a cost of 9.</t>
+  </si>
+  <si>
+    <t>Possible paths from node A to node P:
+1. A - E - J - O - P   (cost: 5 + 2 + 5 + 3 = 15)
+2. A - B - C - G - H - P   (cost: 2 + 1 + 4 + 4 + 5 = 16)
+3. A - B - C - G - P   (cost: 2 + 1 + 4 + 4 = 11)
+4. A - B - C - G - H - I - P   (cost: 2 + 1 + 4 + 4 + 5 + 5 = 21)
+5. A - E - J - N - P   (cost: 5 + 2 + 5 + 5 = 17)
+6. A - E - J - O - P   (cost: 5 + 2 + 5 + 3 = 15)
+7. A - E - K - P   (cost: 5 + 5 = 10)
+8. A - E - K - L - M - P   (cost: 5 + 5 + 4 + 4 = 18)
+9. A - E - K - O - P   (cost: 5 + 5 + 2 + 3 = 15)
+10. A - E - K - P   (cost: 5 + 5 = 10)
+11. A - E - K - P   (cost: 5 + 5 = 10)
+The least cost path from node A to node P is path 7: A - E - K - P, with a cost of 10.</t>
   </si>
   <si>
     <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; F -&gt; J -&gt; P
-   Total cost: 5 + 4 + 4 + 1 = 14
-2. A -&gt; B -&gt; F -&gt; N -&gt; O -&gt; P
-   Total cost: 5 + 4 + 2 + 5 + 3 = 19
-3. A -&gt; B -&gt; F -&gt; N -&gt; P
-   Total cost: 5 + 4 + 2 + 1 = 12
-4. A -&gt; B -&gt; F -&gt; N -&gt; G -&gt; K -&gt; P
-   Total cost: 5 + 4 + 2 + 5 + 5 + 0 = 21
-By comparing the total costs, the least cost path from node A to node P is:
-A -&gt; B -&gt; F -&gt; N -&gt; P
+1. A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; P (cost 3 + 5 + 2 + 2 + 5 = 17)
+2. A -&gt; B -&gt; F -&gt; J -&gt; P (cost 2 + 1 + 1 = 4)
+3. A -&gt; B -&gt; F -&gt; K -&gt; P (cost 2 + 2 + 3 = 7)
+4. A -&gt; B -&gt; F -&gt; K -&gt; L -&gt; P (cost 2 + 2 + 1 + 3 = 8)
+5. A -&gt; B -&gt; F -&gt; L -&gt; P (cost 2 + 1 + 3 = 6)
+6. A -&gt; B -&gt; F -&gt; L -&gt; O -&gt; P (cost 2 + 1 + 3 + 5 = 11)
+7. A -&gt; B -&gt; G -&gt; O -&gt; P (cost 2 + 2 + 5 = 9)
+8. A -&gt; B -&gt; G -&gt; O -&gt; N -&gt; P (cost 2 + 2 + 5 + 3 = 12)
+9. A -&gt; B -&gt; G -&gt; M -&gt; O -&gt; P (cost 2 + 2 + 5 + 5 = 14)
+10. A -&gt; B -&gt; G -&gt; M -&gt; N -&gt; P (cost 2 + 2 + 5 + 5 + 3 = 17)
+11. A -&gt; B -&gt; G -&gt; M -&gt; N -&gt; L -&gt; P (cost 2 + 2 + 5 + 5 + 3 + 3 = 20)
+12. A -&gt; B -&gt; G -&gt; M -&gt; N -&gt; L -&gt; O -&gt; P (cost 2 + 2 + 5 + 5 + 3 + 3 + 5 = 25)
+The least cost path from node A to node P is Path 2: A -&gt; B -&gt; F -&gt; J -&gt; P with a cost of 4.</t>
+  </si>
+  <si>
+    <t>The possible paths from node A to node P are:
+1. A -&gt; B -&gt; F -&gt; G -&gt; C -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 13)
+2. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 15)
+3. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 16)
+4. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; C -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 17)
+5. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; H -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 19)
+6. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 20)
+7. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; H -&gt; I -&gt; K -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 24)
+8. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 23)
+9. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; L -&gt; P (Cost = 24)
+10. A -&gt; B -&gt; F -&gt; J -&gt; G -&gt; L -&gt; K -&gt; M -&gt; N -&gt; O -&gt; P (Cost = 29)
+Among these paths, the least cost path from node A to node P is:
+A -&gt; B -&gt; F -&gt; G -&gt; C -&gt; M -&gt; N -&gt; O -&gt; P
 So, the sequence of nodes in the least cost path from node A to node P is:
-A, B, F, N, P</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A - B - F - J - N - P (cost = 2 + 4 + 3 + 1)
-2. A - C - D - H - K - P (cost = 3 + 5 + 2 + 4)
-3. A - E - I - K - P (cost = 2 + 2 + 4)
-4. A - C - G - O - P (cost = 3 + 5 + 4)
-5. A - C - D - H - L - O - P (cost = 3 + 5 + 5 + 4)
-6. A - C - G - N - P (cost = 3 + 5 + 3)
-7. A - C - I - J - N - P (cost = 3 + 2 + 3 + 1)
-8. A - E - J - N - P (cost = 2 + 4 + 3)
-9. A - C - G - N - J - E - I - K - P (cost = 3 + 5 + 3 + 1 + 4 + 2 + 4)
-10. A - E - I - J - N - P (cost = 2 + 2 + 3 + 1)
-From the above paths, the minimum cost path from node A to node P is:
-A - C - G - N - P (cost = 3 + 5 + 3)</t>
+A -&gt; B -&gt; F -&gt; G -&gt; C -&gt; M -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To find the least cost path from node A to node P, we can use the Dijkstra's algorithm. 
+Starting from node A, we will keep track of the current shortest distance to each node and update it as we explore the graph. Initially, all other nodes except A will have distance infinity.
+We will also keep a set of visited nodes to track which nodes have been explored. At each step, we will choose the node with the minimum distance that has not been visited yet.
+We can then iterate through the adjacency matrix to find the neighbors of the current node and update their distances if a shorter path is found.
+Here is the step-by-step process:
+1. Initialize an empty set called "visited" to store the visited nodes.
+2. Create a list called "distances" to store the current shortest distance to each node, and initialize all distances to infinity, except for node A which is set to 0.
+3. Create an empty dictionary called "previous" to store the previous node in the shortest path to each node.
+4. While the destination node P is not in "visited":
+     a. Choose the node with the minimum distance from "distances" that has not been visited yet.
+     b. Mark the chosen node as visited by adding it to the "visited" set.
+     c. Iterate through the neighbors of the chosen node in the adjacency matrix:
+          i. If the neighbor node is not visited and the cost of traveling to it from the chosen node plus the current distance to the chosen node is less than the current distance to the neighbor node, update its distance in "distances" and set the previous node in the shortest path to it as the chosen node.
+5. Once the destination node P is marked as visited, construct the shortest path sequence by starting from the destination node and using the "previous" dictionary to backtrack to the source node A.
+6. Reverse the constructed path sequence to get the correct order from A to P.
+7. Return the shortest path sequence.
+Let's implement this algorithm:
+```
+import numpy as np
+# Given adjacency matrix
+adjacency_matrix = np.array([[0, 5, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+                            [0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+                            [0, 2, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+                            [0, 0, 2, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0],
+                            [0, 0, 0, 0, 0, 2, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0],
+                            [0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0],
+                            [0, 0, 0, 0, 0, 3, 0, 2, 0, 0, 3, 0, 0, 0, 0, 0],
+                            [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0],
+                            [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+                            [0, 0, 0, 0, </t>
+  </si>
+  <si>
+    <t>1. A -&gt; P: Cost = 0 + 0 + 5 + 1 = 6
+2. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P: Cost = 3 + 2 + 5 + 5 + 5 + 1 = 21
+3. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; L -&gt; P: Cost = 3 + 2 + 5 + 5 + 1 + 4 + 2 + 1 = 23
+4. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; M -&gt; O -&gt; P: Cost = 3 + 2 + 5 + 5 + 1 + 4 + 5 + 2 + 1 = 28
+5. A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; D -&gt; M -&gt; O -&gt; N -&gt; P: Cost = 3 + 2 + 5 + 5 + 1 + 4 + 5 + 2 + 2 + 1 = 30
+6. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P: Cost = 2 + 5 + 3 + 5 + 5 + 1 = 21
+7. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; H -&gt; D -&gt; L -&gt; P: Cost = 2 + 5 + 3 + 5 + 1 + 4 + 2 + 1 = 23
+8. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; H -&gt; D -&gt; M -&gt; O -&gt; P: Cost = 2 + 5 + 3 + 5 + 1 + 4 + 5 + 2 + 1 = 28
+9. A -&gt; E -&gt; F -&gt; C -&gt; G -&gt; H -&gt; D -&gt; M -&gt; O -&gt; N -&gt; P: Cost = 2 + 5 + 3 + 5 + 1 + 4 + 5 + 2 + 2 + 1 = 30
+The least cost path from node A to node P is A -&gt; P with a cost of 6.</t>
   </si>
   <si>
     <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; C -&gt; D -&gt; P (cost = 2+5+5)
-2. A -&gt; B -&gt; F -&gt; G -&gt; P (cost = 2+5+3)
-3. A -&gt; B -&gt; F -&gt; H -&gt; P (cost = 2+5+3)
-4. A -&gt; E -&gt; I -&gt; J -&gt; P (cost = 5+1+5)
-5. A -&gt; E -&gt; K -&gt; P (cost = 5+1)
-6. A -&gt; B -&gt; F -&gt; H -&gt; D -&gt; P (cost = 2+5+3+5)
-7. A -&gt; B -&gt; F -&gt; H -&gt; D -&gt; N -&gt; O -&gt; P (cost = 2+5+3+5+4+2+3)
-The least cost path from node A to node P is path 2: A -&gt; B -&gt; F -&gt; G -&gt; P. The sequence of nodes is A, B, F, G, P.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-- A -&gt; B -&gt; C -&gt; D -&gt; P (cost = 0 + 5 + 3 + 4 = 12)
-- A -&gt; B -&gt; F -&gt; G -&gt; P (cost = 0 + 5 + 0 + 4 = 9)
-- A -&gt; B -&gt; F -&gt; G -&gt; O -&gt; P (cost = 0 + 5 + 0 + 4 + 5 = 14)
-- A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P (cost = 4 + 2 + 3 + 4 + 3 + 5 = 21)
-- A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; O -&gt; P (cost = 4 + 2 + 3 + 4 + 2 + 5 = 20)
-- A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P (cost = 4 + 2 + 3 + 4 + 2 = 15)
-- A -&gt; E -&gt; I -&gt; N -&gt; O -&gt; P (cost = 4 + 2 + 3 + 1 + 5 = 15)
-- A -&gt; E -&gt; I -&gt; N -&gt; P (cost = 4 + 2 + 3 + 1 = 10)
-- A -&gt; E -&gt; I -&gt; P (cost = 4 + 2 + 3 = 9)
-The least cost path from node A to node P is "A -&gt; E -&gt; I -&gt; P" with a cost of 9.</t>
-  </si>
-  <si>
-    <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; F -&gt; P (total cost = 4 + 5 + 2 = 11)
-2. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; P (total cost = 4 + 5 + 2 + 2 + 2 = 15)
-3. A -&gt; E -&gt; F -&gt; P (total cost = 1 + 4 + 2 = 7)
-4. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; P (total cost = 1 + 4 + 2 + 2 + 2 = 11)
-5. A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; P (total cost = 1 + 4 + 2 + 2 + 2 + 3 + 3 = 17)
-6. A -&gt; E -&gt; M -&gt; N -&gt; P (total cost = 1 + 3 + 4 + 4 = 12)
-7. A -&gt; E -&gt; O -&gt; P (total cost = 1 + 2 + 5 = 8)
-8. A -&gt; E -&gt; O -&gt; Q -&gt; P (no direct connection between O and Q, so this path is not possible)
-9. A -&gt; E -&gt; O -&gt; P -&gt; Q (no direct connection between P and Q, so this path is not possible)
-Hence, the least cost path from node A to node P is A -&gt; E -&gt; F -&gt; P, with a total cost of 7.</t>
-  </si>
-  <si>
-    <t>The possible paths from node A to node P are:
-1. A -&gt; B -&gt; C -&gt; H -&gt; J -&gt; N -&gt; P (cost: 4 + 4 + 1 + 5 + 4 = 18)
-2. A -&gt; C -&gt; H -&gt; J -&gt; N -&gt; P (cost: 4 + 1 + 5 + 4 = 14)
-3. A -&gt; E -&gt; I -&gt; J -&gt; N -&gt; P (cost: 2 + 4 + 1 + 5 + 4 = 16)
-4. A -&gt; C -&gt; G -&gt; K -&gt; N -&gt; P (cost: 4 + 4 + 3 + 4 = 15)
-5. A -&gt; C -&gt; H -&gt; J -&gt; N -&gt; O -&gt; P (cost: 4 + 1 + 5 + 3 = 13)
-Therefore, the least cost path from node A to node P is A -&gt; C -&gt; H -&gt; J -&gt; N -&gt; O -&gt; P with a cost of 13.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node O:
-1. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; N -&gt; O (Total cost: 1 + 5 + 5 + 4 + 4 + 4 = 23)
-2. A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O (Total cost: 1 + 5 + 5 + 4 + 2 = 17)
-3. A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; D -&gt; O (Total cost: 1 + 5 + 5 + 4 + 3 = 18)
-4. A -&gt; B -&gt; F -&gt; J -&gt; O (Total cost: 1 + 5 + 1 = 7)
-Among these paths, the least cost path from node A to node O is A -&gt; B -&gt; F -&gt; J -&gt; O, with a total cost of 7. Therefore, the sequence of nodes in the least cost path is A -&gt; B -&gt; F -&gt; J -&gt; O.</t>
-  </si>
-  <si>
-    <t>Possible paths from node A to node P:
-1. A -&gt; B -&gt; C -&gt; G -&gt; O -&gt; P (cost = 5 + 5 + 3 + 1 + 1 = 15)
-2. A -&gt; E -&gt; F -&gt; J -&gt; O -&gt; P (cost = 2 + 5 + 3 + 5 + 1 = 16)
-3. A -&gt; F -&gt; J -&gt; O -&gt; P (cost = 5 + 3 + 5 + 1 = 14)
-4. A -&gt; F -&gt; K -&gt; J -&gt; O -&gt; P (cost = 5 + 3 + 3 + 5 + 1 = 17)
-5. A -&gt; F -&gt; K -&gt; N -&gt; P (cost = 5 + 3 + 3 + 3 = 14)
-6. A -&gt; F -&gt; L -&gt; P (cost = 5 + 3 + 2 = 10)
-The least cost path from node A to node P is A -&gt; F -&gt; L -&gt; P with a cost of 10.</t>
+1. A - B - D - P (Cost: 5 + 2 + 4 = 11)
+2. A - B - D - E - I - J - P (Cost: 5 + 2 + 1 + 5 + 5 = 18)
+3. A - B - D - E - M - N - P (Cost: 5 + 2 + 1 + 2 + 2 = 12)
+4. A - E - M - N - P (Cost: 2 + 2 + 2 = 6)
+5. A - E - I - J - P (Cost: 2 + 3 + 5 = 10)
+6. A - E - K - L - H - D - P (Cost: 2 + 3 + 2 + 2 + 1 + 4 = 14)
+7. A - E - K - L - H - P (Cost: 2 + 3 + 2 + 2 + 1 = 10)
+8. A - E - K - O - P (Cost: 2 + 3 + 3 = 8)
+The least cost path from node A to node P is path 4: A - E - M - N - P (Cost: 6).</t>
   </si>
 </sst>
 </file>
@@ -783,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -849,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
